--- a/data/trans_camb/P19-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 16,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 16,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 19,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,83; 4,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,88; 9,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,75; 8,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; 8,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,92; 10,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,17; 10,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,99; 128,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,88; 124,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,23; 159,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,42; 14,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,12; 33,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,32; 30,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,75; 36,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; 46,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,55; 47,51</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,37; 3,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 11,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 5,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 9,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 3,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 2,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 8,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 1,5</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,74%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,4; 16,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,45; 56,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,93; 12,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,72; 18,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 36,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,56; 11,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,31; 10,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,07; 34,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,48; 6,1</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,5; 2,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 7,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; 2,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,57; 2,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 8,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; -0,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 1,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 6,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 0,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,48%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,66; 10,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 32,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,97; 11,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,7; 8,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 29,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,65; -1,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,99; 6,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 25,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,36; 1,23</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 3,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 8,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 9,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,26; 1,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 7,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,71; 4,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 1,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 6,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 5,2</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; 15,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 35,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 37,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,13; 5,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; 25,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,6; 13,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,38; 4,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 24,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,36; 18,18</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 5,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 7,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 8,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 5,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 6,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 7,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 6,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 6,73</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,06%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,03; 24,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 35,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 36,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,37; 18,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,66; 21,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 26,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 16,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 24,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 26,03</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 2,03</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 6,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 3,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 1,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 5,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 1,51</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 0,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 5,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 2,16</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 8,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,02; 26,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 15,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 4,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 17,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 4,93</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 3,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,82; 19,04</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 8,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 16,66</t>
+          <t>-5,23; 3,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 16,04</t>
+          <t>1,32; 10,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 19,77</t>
+          <t>-5,27; 4,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 4,14</t>
+          <t>-7,08; 3,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 9,57</t>
+          <t>-1,64; 8,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 8,54</t>
+          <t>-6,63; 2,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 8,38</t>
+          <t>-4,63; 2,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 10,31</t>
+          <t>1,14; 7,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 10,46</t>
+          <t>-4,21; 2,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,88%</t>
+          <t>-5,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,95%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>-5,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-3,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>-2,81%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 128,03</t>
+          <t>-20,79; 16,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 124,23</t>
+          <t>5,0; 50,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 159,15</t>
+          <t>-21,25; 21,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,42; 14,91</t>
+          <t>-20,9; 11,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,12; 33,77</t>
+          <t>-4,85; 28,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 30,77</t>
+          <t>-19,8; 9,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 36,37</t>
+          <t>-16,31; 10,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 46,67</t>
+          <t>4,13; 31,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 47,51</t>
+          <t>-14,67; 11,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-5,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 3,44</t>
+          <t>-5,5; 2,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 11,86</t>
+          <t>-0,81; 7,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 2,77</t>
+          <t>-15,96; 0,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 5,16</t>
+          <t>-5,57; 2,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 9,91</t>
+          <t>-0,08; 8,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 3,24</t>
+          <t>-7,79; 0,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,66</t>
+          <t>-4,15; 1,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 8,57</t>
+          <t>1,12; 6,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 1,5</t>
+          <t>-14,49; -1,23</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,06%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,1%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>-18,1%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 16,47</t>
+          <t>-20,66; 10,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 56,71</t>
+          <t>-2,92; 32,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 12,66</t>
+          <t>-57,01; 2,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 18,9</t>
+          <t>-16,7; 8,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 36,12</t>
+          <t>-0,24; 29,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 11,99</t>
+          <t>-23,51; 0,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 10,15</t>
+          <t>-13,99; 6,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 34,3</t>
+          <t>3,81; 25,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 6,1</t>
+          <t>-48,61; -4,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 2,5</t>
+          <t>-5,75; 3,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,37</t>
+          <t>-1,38; 8,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,83</t>
+          <t>-1,01; 9,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 2,51</t>
+          <t>-8,26; 1,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 8,61</t>
+          <t>-2,3; 7,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; -0,43</t>
+          <t>-18,3; 7,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,67</t>
+          <t>-5,41; 1,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,72</t>
+          <t>-0,23; 6,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 0,28</t>
+          <t>-11,33; 6,85</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,69%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-9,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>-10,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 10,88</t>
+          <t>-19,26; 15,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 32,88</t>
+          <t>-4,56; 35,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 11,91</t>
+          <t>-3,41; 39,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 8,91</t>
+          <t>-24,13; 5,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 29,11</t>
+          <t>-6,82; 25,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -1,27</t>
+          <t>-54,11; 22,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 6,44</t>
+          <t>-17,38; 4,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 25,29</t>
+          <t>-0,62; 24,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 1,23</t>
+          <t>-36,0; 23,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>3,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,8</t>
+          <t>-2,83; 5,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,84</t>
+          <t>0,19; 7,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 9,29</t>
+          <t>0,24; 8,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 1,74</t>
+          <t>-2,74; 5,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 7,42</t>
+          <t>-1,85; 6,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 4,22</t>
+          <t>-5,26; 6,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,23</t>
+          <t>-1,56; 4,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,94</t>
+          <t>0,43; 6,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,2</t>
+          <t>-0,54; 6,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,96%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,3%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 15,84</t>
+          <t>-10,03; 24,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 35,83</t>
+          <t>0,79; 35,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 37,16</t>
+          <t>0,97; 39,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 5,4</t>
+          <t>-8,37; 18,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 25,17</t>
+          <t>-5,66; 21,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 13,39</t>
+          <t>-16,29; 22,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 4,27</t>
+          <t>-5,4; 16,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 24,84</t>
+          <t>1,42; 24,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 18,18</t>
+          <t>-1,64; 23,8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 5,63</t>
+          <t>-2,65; 2,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,96</t>
+          <t>1,81; 6,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,38</t>
+          <t>-5,48; 3,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,22</t>
+          <t>-3,16; 1,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,34</t>
+          <t>0,89; 5,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 7,74</t>
+          <t>-7,14; 1,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,36</t>
+          <t>-2,21; 0,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,49</t>
+          <t>2,01; 5,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,73</t>
+          <t>-4,38; 1,82</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>-2,17%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 24,85</t>
+          <t>-10,05; 8,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,79; 35,77</t>
+          <t>7,02; 26,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 36,68</t>
+          <t>-22,33; 12,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 18,04</t>
+          <t>-9,7; 4,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 21,56</t>
+          <t>2,66; 17,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 26,79</t>
+          <t>-23,39; 6,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 16,56</t>
+          <t>-7,69; 3,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,42; 24,64</t>
+          <t>6,82; 19,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,75; 26,03</t>
+          <t>-15,5; 6,6</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 2,03</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 6,3</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 3,68</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 1,24</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 5,37</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 1,51</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 0,98</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 5,25</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 2,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-0,86%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>16,8%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-3,25%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>10,17%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>13,12%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 8,54</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 26,74</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 15,58</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-9,7; 4,04</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 17,83</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 4,93</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-7,69; 3,5</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>6,82; 19,04</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 8,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,42</t>
+          <t>-4,87; 3,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,37</t>
+          <t>1,65; 11,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 4,57</t>
+          <t>-4,63; 5,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 3,35</t>
+          <t>-6,26; 3,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 8,04</t>
+          <t>-1,7; 8,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 2,88</t>
+          <t>-5,79; 3,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 2,64</t>
+          <t>-4,28; 2,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,84</t>
+          <t>1,13; 7,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,8</t>
+          <t>-4,22; 2,36</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 16,56</t>
+          <t>-19,76; 19,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 50,42</t>
+          <t>6,4; 55,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 21,11</t>
+          <t>-18,63; 27,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 11,63</t>
+          <t>-18,79; 12,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 28,4</t>
+          <t>-4,97; 29,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 9,82</t>
+          <t>-17,44; 11,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 10,3</t>
+          <t>-14,82; 9,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 31,05</t>
+          <t>3,95; 30,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 11,25</t>
+          <t>-14,77; 9,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 2,5</t>
+          <t>-5,01; 2,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,37</t>
+          <t>-0,63; 7,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 0,57</t>
+          <t>-15,39; 1,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 2,51</t>
+          <t>-5,25; 3,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 8,61</t>
+          <t>-0,25; 8,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,03</t>
+          <t>-7,65; 0,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,67</t>
+          <t>-3,96; 1,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,72</t>
+          <t>0,78; 6,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -1,23</t>
+          <t>-13,46; -1,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 10,88</t>
+          <t>-19,17; 11,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 32,88</t>
+          <t>-2,39; 32,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,01; 2,23</t>
+          <t>-57,77; 4,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 8,91</t>
+          <t>-15,49; 10,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 29,11</t>
+          <t>-0,78; 28,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 0,33</t>
+          <t>-22,74; 1,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 6,44</t>
+          <t>-13,4; 6,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 25,29</t>
+          <t>2,68; 25,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -4,42</t>
+          <t>-46,17; -4,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,8</t>
+          <t>-5,59; 3,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,84</t>
+          <t>-1,07; 8,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 9,88</t>
+          <t>-0,95; 10,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 1,74</t>
+          <t>-7,94; 1,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 7,42</t>
+          <t>-2,58; 7,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 7,06</t>
+          <t>-19,37; 6,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,23</t>
+          <t>-5,51; 1,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,94</t>
+          <t>-0,47; 6,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 6,85</t>
+          <t>-11,27; 6,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 15,84</t>
+          <t>-18,91; 14,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 35,83</t>
+          <t>-3,28; 36,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 39,29</t>
+          <t>-2,84; 42,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 5,4</t>
+          <t>-23,52; 6,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 25,17</t>
+          <t>-7,45; 23,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 22,68</t>
+          <t>-55,67; 21,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 4,27</t>
+          <t>-17,23; 5,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 24,84</t>
+          <t>-1,47; 21,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 23,27</t>
+          <t>-36,72; 21,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 5,63</t>
+          <t>-2,61; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,96</t>
+          <t>0,01; 8,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 8,74</t>
+          <t>0,35; 8,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,22</t>
+          <t>-2,57; 5,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,34</t>
+          <t>-1,6; 6,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,45</t>
+          <t>-5,5; 6,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,36</t>
+          <t>-1,53; 4,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,49</t>
+          <t>0,21; 6,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,22</t>
+          <t>-0,9; 6,49</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 24,85</t>
+          <t>-10,01; 21,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 35,77</t>
+          <t>0,05; 36,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 39,25</t>
+          <t>1,21; 37,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 18,04</t>
+          <t>-8,0; 20,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 21,56</t>
+          <t>-5,1; 22,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 22,22</t>
+          <t>-16,85; 21,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 16,56</t>
+          <t>-5,31; 15,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,42; 24,64</t>
+          <t>0,67; 22,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 23,8</t>
+          <t>-2,1; 24,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,03</t>
+          <t>-2,4; 2,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,3</t>
+          <t>2,03; 6,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,1</t>
+          <t>-5,78; 3,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,24</t>
+          <t>-3,23; 1,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,37</t>
+          <t>0,92; 5,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,89</t>
+          <t>-7,46; 1,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,98</t>
+          <t>-2,14; 1,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,25</t>
+          <t>1,88; 5,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,82</t>
+          <t>-4,23; 1,62</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 8,54</t>
+          <t>-9,14; 8,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,02; 26,74</t>
+          <t>7,74; 27,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 12,69</t>
+          <t>-22,64; 13,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 4,04</t>
+          <t>-10,16; 4,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,66; 17,83</t>
+          <t>2,79; 18,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 6,0</t>
+          <t>-23,14; 6,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,5</t>
+          <t>-7,45; 4,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,82; 19,04</t>
+          <t>6,48; 19,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 6,6</t>
+          <t>-14,59; 5,82</t>
         </is>
       </c>
     </row>
